--- a/MUESTRA.xlsx
+++ b/MUESTRA.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t xml:space="preserve">nom_dominio</t>
+    <t xml:space="preserve">nombre_dom</t>
   </si>
   <si>
     <t xml:space="preserve">HouseholdsPerPSU</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">Esmeraldas Ciudad</t>
   </si>
   <si>
+    <t xml:space="preserve">Loja Ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santo Domingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loja Ciudad</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
         <v>118</v>
       </c>
       <c r="E2" t="n">
-        <v>1292</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>1013</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         <v>95</v>
       </c>
       <c r="E6" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +573,7 @@
         <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="n">
-        <v>1079</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="9">
@@ -607,7 +607,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="n">
-        <v>1232</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="10">
@@ -624,7 +624,7 @@
         <v>334</v>
       </c>
       <c r="E10" t="n">
-        <v>3669</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="11">
@@ -641,7 +641,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="n">
-        <v>961</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12">
@@ -658,7 +658,7 @@
         <v>109</v>
       </c>
       <c r="E12" t="n">
-        <v>1189</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="13">
@@ -675,7 +675,7 @@
         <v>110</v>
       </c>
       <c r="E13" t="n">
-        <v>1200</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="14">
@@ -692,7 +692,7 @@
         <v>180</v>
       </c>
       <c r="E14" t="n">
-        <v>1971</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="15">
@@ -709,7 +709,7 @@
         <v>90</v>
       </c>
       <c r="E15" t="n">
-        <v>981</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16">
@@ -726,7 +726,7 @@
         <v>64</v>
       </c>
       <c r="E16" t="n">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17">
@@ -743,7 +743,7 @@
         <v>81</v>
       </c>
       <c r="E17" t="n">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18">
@@ -777,7 +777,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="n">
-        <v>1314</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>86</v>
       </c>
       <c r="E20" t="n">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="21">
@@ -811,7 +811,7 @@
         <v>47</v>
       </c>
       <c r="E21" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22">
@@ -828,7 +828,7 @@
         <v>69</v>
       </c>
       <c r="E22" t="n">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23">
@@ -845,7 +845,7 @@
         <v>64</v>
       </c>
       <c r="E23" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24">
@@ -862,7 +862,7 @@
         <v>78</v>
       </c>
       <c r="E24" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25">
@@ -879,7 +879,7 @@
         <v>59</v>
       </c>
       <c r="E25" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26">
@@ -913,7 +913,7 @@
         <v>177</v>
       </c>
       <c r="E27" t="n">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>127</v>
       </c>
       <c r="E28" t="n">
-        <v>1397</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="29">
@@ -947,7 +947,7 @@
         <v>120</v>
       </c>
       <c r="E29" t="n">
-        <v>1313</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="30">
@@ -964,7 +964,7 @@
         <v>135</v>
       </c>
       <c r="E30" t="n">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="31">
@@ -981,7 +981,7 @@
         <v>138</v>
       </c>
       <c r="E31" t="n">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="32">
@@ -992,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>1.77</v>
+        <v>1.41</v>
       </c>
       <c r="D32" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E32" t="n">
-        <v>1306</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="33">
@@ -1015,7 +1015,7 @@
         <v>130</v>
       </c>
       <c r="E33" t="n">
-        <v>1425</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="34">
@@ -1026,13 +1026,13 @@
         <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>1.41</v>
+        <v>1.77</v>
       </c>
       <c r="D34" t="n">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E34" t="n">
-        <v>1449</v>
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
